--- a/medicine/Mort/Peine_forte_et_dure/Peine_forte_et_dure.xlsx
+++ b/medicine/Mort/Peine_forte_et_dure/Peine_forte_et_dure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La peine forte et dure (locution issue du français juridique médiéval) était une peine du droit anglais, instaurée en 1406, consistant en l'écrasement sous des poids. Elle sanctionnait les personnes qui, mises en accusation, refusaient tout à la fois de plaider coupable et de plaider non coupable. Celles qui abusaient de leur droit de récuser les jurés pouvaient également y être soumises. 
 L'attitude qui était ainsi sanctionnée s'expliquait par le fait que les accusés qui acceptaient de plaider, dans un sens ou dans l'autre, et qui se voyaient finalement condamnés à la peine de mort, perdaient tous leurs biens au profit de la couronne. En refusant de plaider, les intéressés garantissaient une transmission successorale normale. Il s'agissait d'ailleurs moins d'une peine que d'une forme de torture, puisque le supplice cessait dès que l'accusé acceptait de plaider.
